--- a/biology/Zoologie/Dard_(anatomie)/Dard_(anatomie).xlsx
+++ b/biology/Zoologie/Dard_(anatomie)/Dard_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un dard (du francique daroth, « arme de jet ») ou aiguillon est un organe acéré d'attaque ou de défense généralement de l'extrémité postérieure de certains animaux, parfois connecté à une glande venimeuse, et adapté pour provoquer une blessure par percement.
 </t>
@@ -513,16 +525,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chez les arthropodes
-Chez les insectes aculéates (abeille, fourmi, guêpe), une hypothèse s'appuyant sur des études anatomiques et phylogénétiques, considère que le dard est une modification de l'organe de ponte des Apocrites, l'ovipositeur, au cours de leur histoire évolutive : leurs ancêtres parasitoïdes se servaient de cet appendice abdominal comme organe de ponte et en même temps comme organe d'inoculation du venin (injection de liquide paralysant la proie tout en la maintenant vivante, afin d'assurer à leurs larves une nourriture fraîche et constante durant son développement). Chez les aculéates, la fonction de dépôt des œufs a été perdue[1]. Les insectes porteurs d'un aiguillon sont appelés aculéates. Une échelle de la pénibilité des piqûres d'insectes a été établie par Justin O. Schmidt.
+          <t>Chez les arthropodes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les insectes aculéates (abeille, fourmi, guêpe), une hypothèse s'appuyant sur des études anatomiques et phylogénétiques, considère que le dard est une modification de l'organe de ponte des Apocrites, l'ovipositeur, au cours de leur histoire évolutive : leurs ancêtres parasitoïdes se servaient de cet appendice abdominal comme organe de ponte et en même temps comme organe d'inoculation du venin (injection de liquide paralysant la proie tout en la maintenant vivante, afin d'assurer à leurs larves une nourriture fraîche et constante durant son développement). Chez les aculéates, la fonction de dépôt des œufs a été perdue. Les insectes porteurs d'un aiguillon sont appelés aculéates. Une échelle de la pénibilité des piqûres d'insectes a été établie par Justin O. Schmidt.
 D'autres variantes existent comme le dard caudal des scorpions ou celui des antennes de l'insecte coléoptère Onychocerus albitarsis.
-Chez les poissons
-Chez les poissons, le dard caudal ou aiguillon d'une pastenague comme Pastinachus sephen, famille des Dasyatidae, est une nageoire dorsale modifiée.
-Chez les mammifères
-L'ornithorynque mâle est un des mammifères à avoir un dard venimeux.
-Autres exemples
-Le terme est parfois appliqué pour les crocs d'un serpent.
-Chez les plantes, un dard est un rameau-épine court, lignifié), portant un bourgeon qui donne l'année suivante de sa formation, un bourgeon[2]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dard_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dard_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Types de dards dans la nature</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chez les poissons</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les poissons, le dard caudal ou aiguillon d'une pastenague comme Pastinachus sephen, famille des Dasyatidae, est une nageoire dorsale modifiée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dard_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dard_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Types de dards dans la nature</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chez les mammifères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ornithorynque mâle est un des mammifères à avoir un dard venimeux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dard_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dard_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types de dards dans la nature</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres exemples</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme est parfois appliqué pour les crocs d'un serpent.
+Chez les plantes, un dard est un rameau-épine court, lignifié), portant un bourgeon qui donne l'année suivante de sa formation, un bourgeon. 
 Un poil creux pointu situé sur une glande qui sécrète un liquide corrosif, comme chez les orties. Les pointes de ces cils se brisent en général dans la plaie, et le liquide corrosif y est injecté.
 </t>
         </is>
